--- a/testbench/Test Plan/TEST_PLAN_rf.xlsx
+++ b/testbench/Test Plan/TEST_PLAN_rf.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4885BC0D-25D3-4229-BFA4-58BFB4B62F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E03DA8-D01F-4A92-94A9-9B068B86849E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="35">
   <si>
     <t xml:space="preserve">      STATUS</t>
   </si>
@@ -149,6 +149,18 @@
   </si>
   <si>
     <t>RF[Rs2addr]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">except for sp pointer </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Both write and read </t>
+  </si>
+  <si>
+    <t>writing at the negative edge</t>
   </si>
 </sst>
 </file>
@@ -346,7 +358,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -561,6 +573,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -619,7 +642,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -820,6 +843,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -843,7 +875,7 @@
     <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -978,15 +1010,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <top style="thin">
-          <color theme="7"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1007,10 +1030,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1247,7 +1266,7 @@
   <dimension ref="A1:BS13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1260,7 +1279,7 @@
     <col min="11" max="11" width="26.77734375" style="49" customWidth="1"/>
     <col min="12" max="15" width="2.77734375" style="1"/>
     <col min="16" max="16" width="2.21875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="16.88671875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.21875" style="1" customWidth="1"/>
     <col min="18" max="19" width="2.77734375" style="1"/>
     <col min="20" max="20" width="20" style="1" customWidth="1"/>
     <col min="21" max="21" width="2.77734375" style="1"/>
@@ -1720,10 +1739,16 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
+      <c r="Q11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="54"/>
-      <c r="B12" s="55"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="36" t="s">
         <v>16</v>
       </c>
@@ -1756,12 +1781,51 @@
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
     </row>
-    <row r="13" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H13" s="25"/>
+    <row r="13" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="54"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="39"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="Q13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI13" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A10:B12"/>
+    <mergeCell ref="A10:B13"/>
     <mergeCell ref="T2:W2"/>
     <mergeCell ref="N2:R2"/>
     <mergeCell ref="AL2:AS2"/>
@@ -1775,14 +1839,9 @@
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="A10 B5:B6">
-    <cfRule type="duplicateValues" dxfId="10" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="47"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:G13 I13:BS13">
-    <cfRule type="expression" dxfId="9" priority="3">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5:L12 P5:BS12">
+  <conditionalFormatting sqref="L5:L13 P5:BS13">
     <cfRule type="expression" dxfId="8" priority="2">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -1843,21 +1902,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009E7F311F653CF44E95AC47A60A52DC95" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0451a830a853a7f200515a3d5ff39cb6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="cdca2500-fabf-4293-ac73-9005bff1562e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3edac0ffe3dc3f9835ffad51fa159b8" ns3:_="">
     <xsd:import namespace="cdca2500-fabf-4293-ac73-9005bff1562e"/>
@@ -2047,10 +2091,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3512C65A-A41B-4CD4-AFC9-ECD723732A55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3388B11-EEA3-44E5-B34F-44C0C667C4B0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cdca2500-fabf-4293-ac73-9005bff1562e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2072,19 +2141,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3388B11-EEA3-44E5-B34F-44C0C667C4B0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3512C65A-A41B-4CD4-AFC9-ECD723732A55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="cdca2500-fabf-4293-ac73-9005bff1562e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>